--- a/GenericBuff3.xlsx
+++ b/GenericBuff3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,6 +44,75 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create_ Account_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url should be launched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter UserName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click SignIn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sign in should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accounts page will get opens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PopUp Close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialogue box should get close</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -127,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <x:autoFilter ref="A1:J2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0">
+  <x:autoFilter ref="A1:J8"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -433,20 +502,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2"/>
+  <x:dimension ref="A1:J8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.410625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="17.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="29.410625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -484,16 +553,134 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="C2" s="0" t="s"/>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
